--- a/acs/old_elections.xlsx
+++ b/acs/old_elections.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kguan17/Documents/GitHub/RA-Work/acs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\User\Downloads\RA Work\acs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1381AAE-E1E6-A243-8182-F5E251769E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B0FA3F-A4D1-4FFB-A3BF-6FAAFDDF5464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27180" yWindow="-28300" windowWidth="41820" windowHeight="26600" xr2:uid="{6B2EB732-C0BF-4336-8C6B-FF3332FBF24E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6B2EB732-C0BF-4336-8C6B-FF3332FBF24E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2329" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2331" uniqueCount="547">
   <si>
     <t>filename</t>
   </si>
@@ -1674,6 +1674,9 @@
   </si>
   <si>
     <t>county</t>
+  </si>
+  <si>
+    <t>st_louis_park_wards_2021.csv</t>
   </si>
 </sst>
 </file>
@@ -2054,21 +2057,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022FCB54-8620-44BA-9E5B-DD50E1770DCA}">
   <dimension ref="A1:H410"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A387" workbookViewId="0">
-      <selection activeCell="A411" sqref="A411:H500"/>
+    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
+      <selection activeCell="E268" sqref="E268"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="68.1640625" customWidth="1"/>
-    <col min="2" max="2" width="32.5" customWidth="1"/>
+    <col min="1" max="1" width="68.140625" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" customWidth="1"/>
     <col min="3" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" customWidth="1"/>
-    <col min="7" max="7" width="20.5" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2094,7 +2097,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>203</v>
       </c>
@@ -2117,7 +2120,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>205</v>
       </c>
@@ -2140,7 +2143,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>206</v>
       </c>
@@ -2163,7 +2166,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>207</v>
       </c>
@@ -2186,7 +2189,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>208</v>
       </c>
@@ -2209,7 +2212,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>260</v>
       </c>
@@ -2232,7 +2235,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>261</v>
       </c>
@@ -2255,7 +2258,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>68</v>
       </c>
@@ -2276,7 +2279,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>70</v>
       </c>
@@ -2297,7 +2300,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>77</v>
       </c>
@@ -2318,7 +2321,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>90</v>
       </c>
@@ -2339,7 +2342,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>91</v>
       </c>
@@ -2360,7 +2363,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>102</v>
       </c>
@@ -2381,7 +2384,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>103</v>
       </c>
@@ -2402,7 +2405,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>104</v>
       </c>
@@ -2423,7 +2426,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>109</v>
       </c>
@@ -2444,7 +2447,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>110</v>
       </c>
@@ -2465,7 +2468,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>111</v>
       </c>
@@ -2486,7 +2489,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>112</v>
       </c>
@@ -2507,7 +2510,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>119</v>
       </c>
@@ -2528,7 +2531,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>147</v>
       </c>
@@ -2549,7 +2552,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>148</v>
       </c>
@@ -2570,7 +2573,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>155</v>
       </c>
@@ -2591,7 +2594,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>161</v>
       </c>
@@ -2612,7 +2615,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>180</v>
       </c>
@@ -2633,7 +2636,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>199</v>
       </c>
@@ -2654,7 +2657,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>200</v>
       </c>
@@ -2675,7 +2678,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>201</v>
       </c>
@@ -2696,7 +2699,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>209</v>
       </c>
@@ -2717,7 +2720,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>257</v>
       </c>
@@ -2738,7 +2741,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>258</v>
       </c>
@@ -2761,7 +2764,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>268</v>
       </c>
@@ -2782,7 +2785,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>269</v>
       </c>
@@ -2803,7 +2806,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>273</v>
       </c>
@@ -2824,7 +2827,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>276</v>
       </c>
@@ -2845,7 +2848,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>278</v>
       </c>
@@ -2866,7 +2869,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>287</v>
       </c>
@@ -2887,7 +2890,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>291</v>
       </c>
@@ -2908,7 +2911,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>295</v>
       </c>
@@ -2929,7 +2932,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>296</v>
       </c>
@@ -2950,7 +2953,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>305</v>
       </c>
@@ -2971,7 +2974,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>309</v>
       </c>
@@ -2992,7 +2995,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>316</v>
       </c>
@@ -3013,7 +3016,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>323</v>
       </c>
@@ -3034,7 +3037,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>327</v>
       </c>
@@ -3055,7 +3058,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>336</v>
       </c>
@@ -3076,7 +3079,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>338</v>
       </c>
@@ -3097,7 +3100,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>339</v>
       </c>
@@ -3118,7 +3121,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>373</v>
       </c>
@@ -3139,7 +3142,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>374</v>
       </c>
@@ -3160,7 +3163,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>376</v>
       </c>
@@ -3181,7 +3184,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>379</v>
       </c>
@@ -3202,7 +3205,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>391</v>
       </c>
@@ -3223,7 +3226,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>392</v>
       </c>
@@ -3244,7 +3247,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>393</v>
       </c>
@@ -3265,7 +3268,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>394</v>
       </c>
@@ -3286,7 +3289,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>395</v>
       </c>
@@ -3307,7 +3310,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>406</v>
       </c>
@@ -3328,7 +3331,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>407</v>
       </c>
@@ -3349,7 +3352,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>411</v>
       </c>
@@ -3370,7 +3373,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>417</v>
       </c>
@@ -3391,7 +3394,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>424</v>
       </c>
@@ -3412,7 +3415,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>428</v>
       </c>
@@ -3433,7 +3436,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>430</v>
       </c>
@@ -3454,7 +3457,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>437</v>
       </c>
@@ -3475,7 +3478,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>438</v>
       </c>
@@ -3496,7 +3499,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>439</v>
       </c>
@@ -3517,7 +3520,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>440</v>
       </c>
@@ -3538,7 +3541,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>72</v>
       </c>
@@ -3564,7 +3567,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>73</v>
       </c>
@@ -3590,7 +3593,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>74</v>
       </c>
@@ -3616,7 +3619,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>75</v>
       </c>
@@ -3642,7 +3645,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>76</v>
       </c>
@@ -3668,7 +3671,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>79</v>
       </c>
@@ -3694,7 +3697,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>80</v>
       </c>
@@ -3720,7 +3723,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>81</v>
       </c>
@@ -3746,7 +3749,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>82</v>
       </c>
@@ -3772,7 +3775,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>83</v>
       </c>
@@ -3798,7 +3801,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>84</v>
       </c>
@@ -3824,7 +3827,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>85</v>
       </c>
@@ -3850,7 +3853,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>86</v>
       </c>
@@ -3876,7 +3879,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>87</v>
       </c>
@@ -3902,7 +3905,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>88</v>
       </c>
@@ -3928,7 +3931,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>89</v>
       </c>
@@ -3954,7 +3957,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>94</v>
       </c>
@@ -3980,7 +3983,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>95</v>
       </c>
@@ -4006,7 +4009,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>96</v>
       </c>
@@ -4032,7 +4035,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>97</v>
       </c>
@@ -4058,7 +4061,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>98</v>
       </c>
@@ -4084,7 +4087,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>99</v>
       </c>
@@ -4110,7 +4113,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>100</v>
       </c>
@@ -4136,7 +4139,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>101</v>
       </c>
@@ -4162,7 +4165,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>105</v>
       </c>
@@ -4188,7 +4191,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>106</v>
       </c>
@@ -4214,7 +4217,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>107</v>
       </c>
@@ -4240,7 +4243,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>108</v>
       </c>
@@ -4266,7 +4269,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>117</v>
       </c>
@@ -4292,7 +4295,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>118</v>
       </c>
@@ -4318,7 +4321,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>133</v>
       </c>
@@ -4344,7 +4347,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>134</v>
       </c>
@@ -4370,7 +4373,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>135</v>
       </c>
@@ -4396,7 +4399,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>136</v>
       </c>
@@ -4422,7 +4425,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>137</v>
       </c>
@@ -4448,7 +4451,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>138</v>
       </c>
@@ -4474,7 +4477,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>139</v>
       </c>
@@ -4500,7 +4503,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>140</v>
       </c>
@@ -4526,7 +4529,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>141</v>
       </c>
@@ -4552,7 +4555,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>142</v>
       </c>
@@ -4578,7 +4581,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>143</v>
       </c>
@@ -4604,7 +4607,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>144</v>
       </c>
@@ -4630,7 +4633,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>145</v>
       </c>
@@ -4656,7 +4659,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>146</v>
       </c>
@@ -4682,7 +4685,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>158</v>
       </c>
@@ -4708,7 +4711,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>159</v>
       </c>
@@ -4734,7 +4737,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>160</v>
       </c>
@@ -4760,7 +4763,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>167</v>
       </c>
@@ -4786,7 +4789,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>168</v>
       </c>
@@ -4812,7 +4815,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>169</v>
       </c>
@@ -4838,7 +4841,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>170</v>
       </c>
@@ -4864,7 +4867,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>171</v>
       </c>
@@ -4890,7 +4893,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>172</v>
       </c>
@@ -4916,7 +4919,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>173</v>
       </c>
@@ -4942,7 +4945,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>174</v>
       </c>
@@ -4968,7 +4971,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>175</v>
       </c>
@@ -4994,7 +4997,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>176</v>
       </c>
@@ -5020,7 +5023,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>177</v>
       </c>
@@ -5046,7 +5049,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>178</v>
       </c>
@@ -5072,7 +5075,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>179</v>
       </c>
@@ -5098,7 +5101,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>187</v>
       </c>
@@ -5124,7 +5127,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>188</v>
       </c>
@@ -5150,7 +5153,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>189</v>
       </c>
@@ -5176,7 +5179,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>190</v>
       </c>
@@ -5202,7 +5205,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>191</v>
       </c>
@@ -5228,7 +5231,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>192</v>
       </c>
@@ -5254,7 +5257,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>193</v>
       </c>
@@ -5280,7 +5283,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>194</v>
       </c>
@@ -5306,7 +5309,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>195</v>
       </c>
@@ -5332,7 +5335,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>196</v>
       </c>
@@ -5358,7 +5361,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>197</v>
       </c>
@@ -5384,7 +5387,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>198</v>
       </c>
@@ -5410,7 +5413,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>202</v>
       </c>
@@ -5436,7 +5439,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>211</v>
       </c>
@@ -5462,7 +5465,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>212</v>
       </c>
@@ -5488,7 +5491,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>213</v>
       </c>
@@ -5514,7 +5517,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>214</v>
       </c>
@@ -5540,7 +5543,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>215</v>
       </c>
@@ -5566,7 +5569,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>216</v>
       </c>
@@ -5592,7 +5595,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>217</v>
       </c>
@@ -5618,7 +5621,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>218</v>
       </c>
@@ -5644,7 +5647,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>219</v>
       </c>
@@ -5670,7 +5673,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>220</v>
       </c>
@@ -5696,7 +5699,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>221</v>
       </c>
@@ -5722,7 +5725,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>222</v>
       </c>
@@ -5748,7 +5751,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>223</v>
       </c>
@@ -5774,7 +5777,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>224</v>
       </c>
@@ -5800,7 +5803,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>225</v>
       </c>
@@ -5826,7 +5829,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>226</v>
       </c>
@@ -5852,7 +5855,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>227</v>
       </c>
@@ -5878,7 +5881,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>228</v>
       </c>
@@ -5904,7 +5907,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>229</v>
       </c>
@@ -5930,7 +5933,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>230</v>
       </c>
@@ -5956,7 +5959,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>231</v>
       </c>
@@ -5982,7 +5985,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>232</v>
       </c>
@@ -6008,7 +6011,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>233</v>
       </c>
@@ -6034,7 +6037,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>234</v>
       </c>
@@ -6060,7 +6063,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>235</v>
       </c>
@@ -6086,7 +6089,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>236</v>
       </c>
@@ -6112,7 +6115,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>237</v>
       </c>
@@ -6138,7 +6141,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>238</v>
       </c>
@@ -6164,7 +6167,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>239</v>
       </c>
@@ -6190,7 +6193,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>240</v>
       </c>
@@ -6216,7 +6219,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>241</v>
       </c>
@@ -6242,7 +6245,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>242</v>
       </c>
@@ -6268,7 +6271,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>243</v>
       </c>
@@ -6294,7 +6297,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>244</v>
       </c>
@@ -6320,7 +6323,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>245</v>
       </c>
@@ -6346,7 +6349,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>246</v>
       </c>
@@ -6372,7 +6375,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>247</v>
       </c>
@@ -6398,7 +6401,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>248</v>
       </c>
@@ -6424,7 +6427,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>249</v>
       </c>
@@ -6450,7 +6453,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>250</v>
       </c>
@@ -6476,7 +6479,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>251</v>
       </c>
@@ -6502,7 +6505,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>252</v>
       </c>
@@ -6528,7 +6531,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>253</v>
       </c>
@@ -6554,7 +6557,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>254</v>
       </c>
@@ -6580,7 +6583,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>255</v>
       </c>
@@ -6606,7 +6609,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>256</v>
       </c>
@@ -6632,7 +6635,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>262</v>
       </c>
@@ -6658,7 +6661,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>263</v>
       </c>
@@ -6684,7 +6687,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>264</v>
       </c>
@@ -6710,7 +6713,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>265</v>
       </c>
@@ -6736,7 +6739,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>266</v>
       </c>
@@ -6762,7 +6765,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>267</v>
       </c>
@@ -6788,7 +6791,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>270</v>
       </c>
@@ -6814,7 +6817,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>271</v>
       </c>
@@ -6840,7 +6843,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>272</v>
       </c>
@@ -6866,7 +6869,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>279</v>
       </c>
@@ -6892,7 +6895,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>280</v>
       </c>
@@ -6918,7 +6921,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>281</v>
       </c>
@@ -6944,7 +6947,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>282</v>
       </c>
@@ -6970,7 +6973,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>288</v>
       </c>
@@ -6996,7 +6999,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>289</v>
       </c>
@@ -7022,7 +7025,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>290</v>
       </c>
@@ -7048,7 +7051,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>297</v>
       </c>
@@ -7074,7 +7077,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>298</v>
       </c>
@@ -7100,7 +7103,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>299</v>
       </c>
@@ -7126,7 +7129,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>300</v>
       </c>
@@ -7152,7 +7155,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>306</v>
       </c>
@@ -7178,7 +7181,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>307</v>
       </c>
@@ -7204,7 +7207,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>308</v>
       </c>
@@ -7230,7 +7233,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>312</v>
       </c>
@@ -7256,7 +7259,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>313</v>
       </c>
@@ -7282,7 +7285,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>314</v>
       </c>
@@ -7308,7 +7311,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>315</v>
       </c>
@@ -7334,7 +7337,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>321</v>
       </c>
@@ -7360,7 +7363,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>322</v>
       </c>
@@ -7386,7 +7389,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>342</v>
       </c>
@@ -7412,7 +7415,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>344</v>
       </c>
@@ -7438,7 +7441,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>345</v>
       </c>
@@ -7464,7 +7467,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>346</v>
       </c>
@@ -7490,7 +7493,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>347</v>
       </c>
@@ -7516,7 +7519,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>348</v>
       </c>
@@ -7542,7 +7545,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>349</v>
       </c>
@@ -7568,7 +7571,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>350</v>
       </c>
@@ -7594,7 +7597,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>351</v>
       </c>
@@ -7620,7 +7623,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>352</v>
       </c>
@@ -7646,7 +7649,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>353</v>
       </c>
@@ -7672,7 +7675,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>354</v>
       </c>
@@ -7698,7 +7701,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>358</v>
       </c>
@@ -7724,7 +7727,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>359</v>
       </c>
@@ -7750,7 +7753,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>360</v>
       </c>
@@ -7776,7 +7779,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>361</v>
       </c>
@@ -7802,7 +7805,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>362</v>
       </c>
@@ -7828,7 +7831,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>363</v>
       </c>
@@ -7854,7 +7857,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>364</v>
       </c>
@@ -7880,7 +7883,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>365</v>
       </c>
@@ -7906,7 +7909,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>366</v>
       </c>
@@ -7932,7 +7935,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>367</v>
       </c>
@@ -7958,7 +7961,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>368</v>
       </c>
@@ -7984,7 +7987,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>369</v>
       </c>
@@ -8010,7 +8013,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>370</v>
       </c>
@@ -8036,7 +8039,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>371</v>
       </c>
@@ -8062,7 +8065,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>372</v>
       </c>
@@ -8088,7 +8091,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>375</v>
       </c>
@@ -8114,7 +8117,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>377</v>
       </c>
@@ -8140,7 +8143,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>378</v>
       </c>
@@ -8166,7 +8169,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>381</v>
       </c>
@@ -8192,7 +8195,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>382</v>
       </c>
@@ -8218,7 +8221,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>383</v>
       </c>
@@ -8244,7 +8247,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>384</v>
       </c>
@@ -8270,7 +8273,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>385</v>
       </c>
@@ -8296,7 +8299,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>386</v>
       </c>
@@ -8322,7 +8325,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>387</v>
       </c>
@@ -8348,7 +8351,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>388</v>
       </c>
@@ -8374,7 +8377,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>389</v>
       </c>
@@ -8400,7 +8403,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>390</v>
       </c>
@@ -8426,7 +8429,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>396</v>
       </c>
@@ -8452,7 +8455,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>397</v>
       </c>
@@ -8478,7 +8481,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>398</v>
       </c>
@@ -8504,7 +8507,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>399</v>
       </c>
@@ -8530,7 +8533,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>400</v>
       </c>
@@ -8556,7 +8559,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>401</v>
       </c>
@@ -8582,7 +8585,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>402</v>
       </c>
@@ -8608,7 +8611,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>403</v>
       </c>
@@ -8634,7 +8637,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>404</v>
       </c>
@@ -8660,7 +8663,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>405</v>
       </c>
@@ -8686,7 +8689,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>412</v>
       </c>
@@ -8712,7 +8715,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>413</v>
       </c>
@@ -8738,7 +8741,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
         <v>426</v>
       </c>
@@ -8761,7 +8764,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
         <v>427</v>
       </c>
@@ -8784,7 +8787,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
         <v>429</v>
       </c>
@@ -8807,53 +8810,59 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A273" s="3" t="s">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="B273" s="3" t="s">
+      <c r="B273" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C273" s="3" t="s">
+      <c r="C273" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="D273" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="E273" s="3" t="s">
+      <c r="D273" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="E273" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="F273" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G273" s="3">
+      <c r="F273" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G273" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A274" s="3" t="s">
+      <c r="H273" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="B274" s="3" t="s">
+      <c r="B274" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C274" s="3" t="s">
+      <c r="C274" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="D274" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="E274" s="3" t="s">
+      <c r="D274" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="E274" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="F274" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G274" s="3">
+      <c r="F274" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G274" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H274" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>433</v>
       </c>
@@ -8879,7 +8888,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>434</v>
       </c>
@@ -8905,7 +8914,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>435</v>
       </c>
@@ -8931,7 +8940,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>436</v>
       </c>
@@ -8957,7 +8966,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>120</v>
       </c>
@@ -8981,7 +8990,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>130</v>
       </c>
@@ -9005,7 +9014,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>131</v>
       </c>
@@ -9029,7 +9038,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>132</v>
       </c>
@@ -9053,7 +9062,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
         <v>328</v>
       </c>
@@ -9074,7 +9083,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
         <v>330</v>
       </c>
@@ -9095,7 +9104,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
         <v>334</v>
       </c>
@@ -9116,7 +9125,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>332</v>
       </c>
@@ -9142,7 +9151,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>409</v>
       </c>
@@ -9168,7 +9177,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>410</v>
       </c>
@@ -9194,7 +9203,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>414</v>
       </c>
@@ -9220,7 +9229,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>415</v>
       </c>
@@ -9246,7 +9255,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>416</v>
       </c>
@@ -9272,7 +9281,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>418</v>
       </c>
@@ -9298,7 +9307,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>419</v>
       </c>
@@ -9324,7 +9333,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>420</v>
       </c>
@@ -9350,7 +9359,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>421</v>
       </c>
@@ -9376,7 +9385,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>422</v>
       </c>
@@ -9402,7 +9411,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>423</v>
       </c>
@@ -9428,7 +9437,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>425</v>
       </c>
@@ -9454,7 +9463,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>10</v>
       </c>
@@ -9478,7 +9487,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>12</v>
       </c>
@@ -9502,7 +9511,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>13</v>
       </c>
@@ -9526,7 +9535,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>14</v>
       </c>
@@ -9550,7 +9559,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>15</v>
       </c>
@@ -9574,7 +9583,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>16</v>
       </c>
@@ -9598,7 +9607,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>17</v>
       </c>
@@ -9622,7 +9631,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>18</v>
       </c>
@@ -9646,7 +9655,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>19</v>
       </c>
@@ -9670,7 +9679,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>20</v>
       </c>
@@ -9694,7 +9703,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>21</v>
       </c>
@@ -9718,7 +9727,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>22</v>
       </c>
@@ -9742,7 +9751,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>23</v>
       </c>
@@ -9766,7 +9775,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>24</v>
       </c>
@@ -9790,7 +9799,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>25</v>
       </c>
@@ -9814,7 +9823,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>26</v>
       </c>
@@ -9838,7 +9847,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>27</v>
       </c>
@@ -9862,7 +9871,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>28</v>
       </c>
@@ -9886,7 +9895,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>29</v>
       </c>
@@ -9910,7 +9919,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>30</v>
       </c>
@@ -9934,7 +9943,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>31</v>
       </c>
@@ -9958,7 +9967,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>32</v>
       </c>
@@ -9982,7 +9991,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>33</v>
       </c>
@@ -10006,7 +10015,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>34</v>
       </c>
@@ -10030,7 +10039,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>35</v>
       </c>
@@ -10054,7 +10063,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>36</v>
       </c>
@@ -10078,7 +10087,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>37</v>
       </c>
@@ -10102,7 +10111,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>38</v>
       </c>
@@ -10126,7 +10135,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>39</v>
       </c>
@@ -10150,7 +10159,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>40</v>
       </c>
@@ -10174,7 +10183,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>41</v>
       </c>
@@ -10198,7 +10207,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>42</v>
       </c>
@@ -10222,7 +10231,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>43</v>
       </c>
@@ -10246,7 +10255,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>44</v>
       </c>
@@ -10270,7 +10279,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>123</v>
       </c>
@@ -10294,7 +10303,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>125</v>
       </c>
@@ -10318,7 +10327,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>126</v>
       </c>
@@ -10342,7 +10351,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>127</v>
       </c>
@@ -10366,7 +10375,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
         <v>343</v>
       </c>
@@ -10387,7 +10396,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
         <v>355</v>
       </c>
@@ -10408,7 +10417,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>150</v>
       </c>
@@ -10434,7 +10443,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>151</v>
       </c>
@@ -10460,7 +10469,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>152</v>
       </c>
@@ -10486,7 +10495,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>153</v>
       </c>
@@ -10512,7 +10521,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>154</v>
       </c>
@@ -10538,7 +10547,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>156</v>
       </c>
@@ -10564,7 +10573,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>157</v>
       </c>
@@ -10590,7 +10599,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>162</v>
       </c>
@@ -10616,7 +10625,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>163</v>
       </c>
@@ -10642,7 +10651,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>164</v>
       </c>
@@ -10668,7 +10677,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>165</v>
       </c>
@@ -10694,7 +10703,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>166</v>
       </c>
@@ -10720,7 +10729,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>181</v>
       </c>
@@ -10746,7 +10755,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>182</v>
       </c>
@@ -10772,7 +10781,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>183</v>
       </c>
@@ -10798,7 +10807,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>184</v>
       </c>
@@ -10824,7 +10833,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>185</v>
       </c>
@@ -10850,7 +10859,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>186</v>
       </c>
@@ -10876,7 +10885,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
         <v>340</v>
       </c>
@@ -10897,7 +10906,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
         <v>341</v>
       </c>
@@ -10918,7 +10927,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>274</v>
       </c>
@@ -10944,7 +10953,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>283</v>
       </c>
@@ -10970,7 +10979,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>284</v>
       </c>
@@ -10996,7 +11005,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
         <v>285</v>
       </c>
@@ -11022,7 +11031,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
         <v>286</v>
       </c>
@@ -11048,7 +11057,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
         <v>292</v>
       </c>
@@ -11074,7 +11083,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>293</v>
       </c>
@@ -11100,7 +11109,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>294</v>
       </c>
@@ -11126,7 +11135,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>301</v>
       </c>
@@ -11152,7 +11161,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
         <v>302</v>
       </c>
@@ -11178,7 +11187,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
         <v>303</v>
       </c>
@@ -11204,7 +11213,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>304</v>
       </c>
@@ -11230,7 +11239,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>310</v>
       </c>
@@ -11256,7 +11265,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>311</v>
       </c>
@@ -11282,7 +11291,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>317</v>
       </c>
@@ -11308,7 +11317,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
         <v>318</v>
       </c>
@@ -11334,7 +11343,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
         <v>319</v>
       </c>
@@ -11360,7 +11369,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
         <v>320</v>
       </c>
@@ -11386,7 +11395,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
         <v>324</v>
       </c>
@@ -11412,7 +11421,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
         <v>325</v>
       </c>
@@ -11438,7 +11447,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
         <v>326</v>
       </c>
@@ -11464,7 +11473,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
         <v>356</v>
       </c>
@@ -11485,7 +11494,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
         <v>3</v>
       </c>
@@ -11504,7 +11513,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
         <v>5</v>
       </c>
@@ -11523,7 +11532,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
         <v>8</v>
       </c>
@@ -11542,7 +11551,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
         <v>65</v>
       </c>
@@ -11561,7 +11570,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
         <v>66</v>
       </c>
@@ -11580,7 +11589,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
         <v>113</v>
       </c>
@@ -11599,7 +11608,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
         <v>114</v>
       </c>
@@ -11618,7 +11627,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
         <v>115</v>
       </c>
@@ -11637,7 +11646,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
         <v>116</v>
       </c>
@@ -11656,7 +11665,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
         <v>121</v>
       </c>
@@ -11675,7 +11684,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
         <v>441</v>
       </c>
@@ -11694,7 +11703,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
         <v>45</v>
       </c>
@@ -11718,7 +11727,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
         <v>48</v>
       </c>
@@ -11742,7 +11751,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
         <v>49</v>
       </c>
@@ -11766,7 +11775,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
         <v>50</v>
       </c>
@@ -11790,7 +11799,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
         <v>51</v>
       </c>
@@ -11814,7 +11823,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
         <v>52</v>
       </c>
@@ -11838,7 +11847,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
         <v>53</v>
       </c>
@@ -11862,7 +11871,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
         <v>54</v>
       </c>
@@ -11886,7 +11895,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
         <v>55</v>
       </c>
@@ -11910,7 +11919,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
         <v>56</v>
       </c>
@@ -11934,7 +11943,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
         <v>57</v>
       </c>
@@ -11958,7 +11967,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
         <v>58</v>
       </c>
@@ -11982,7 +11991,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
         <v>59</v>
       </c>
@@ -12006,7 +12015,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
         <v>60</v>
       </c>
@@ -12030,7 +12039,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
         <v>61</v>
       </c>
@@ -12054,7 +12063,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
         <v>62</v>
       </c>
@@ -12078,7 +12087,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
         <v>63</v>
       </c>
@@ -12102,7 +12111,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
         <v>64</v>
       </c>
@@ -12126,7 +12135,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
         <v>128</v>
       </c>
